--- a/Methods.xlsx
+++ b/Methods.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Category</t>
   </si>
@@ -71,6 +71,12 @@
     <t>Worst Case scenario
 Avoid Constants
 Avoid Lower values</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceptual </t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,9 +473,10 @@
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,8 +495,14 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -498,8 +511,10 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -508,8 +523,10 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -518,8 +535,10 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -528,8 +547,10 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -538,8 +559,10 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -548,8 +571,10 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -558,8 +583,10 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -568,8 +595,10 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -578,8 +607,10 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -588,6 +619,8 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -598,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>

--- a/Methods.xlsx
+++ b/Methods.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Category</t>
   </si>
@@ -77,6 +77,27 @@
   </si>
   <si>
     <t xml:space="preserve">Conceptual </t>
+  </si>
+  <si>
+    <t>Approaches</t>
+  </si>
+  <si>
+    <t>Corner Cases</t>
+  </si>
+  <si>
+    <t>Patterns</t>
+  </si>
+  <si>
+    <t>1) for the outer loop , count the no of lines 
+2) for the inner loop, focus on the columns, connect them some how to the rows 
+3) print the element, inside the inner for loop
+4) observe symmetry (optional)</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>Complexity</t>
   </si>
 </sst>
 </file>
@@ -459,168 +480,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -629,16 +718,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -649,6 +738,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Methods.xlsx
+++ b/Methods.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="166">
   <si>
     <t>Category</t>
   </si>
@@ -98,6 +99,575 @@
   </si>
   <si>
     <t>Complexity</t>
+  </si>
+  <si>
+    <t>1.Maths</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Count Digits</t>
+  </si>
+  <si>
+    <t>Approach :
+Convert the integer into a string and count the length of the string
+TC : O(1) 
+SC : O(1)</t>
+  </si>
+  <si>
+    <t>Approach :
+Upper bound of log10(n).
+TC : O(1) 
+SC : O(1)</t>
+  </si>
+  <si>
+    <t>Reverse a Number</t>
+  </si>
+  <si>
+    <t>Check Palindrome</t>
+  </si>
+  <si>
+    <t>GCD Or HCF</t>
+  </si>
+  <si>
+    <t>Armstrong Numbers</t>
+  </si>
+  <si>
+    <t>Print all Divisors</t>
+  </si>
+  <si>
+    <t>Print 1 to N using recursion</t>
+  </si>
+  <si>
+    <t>Print N to 1 using recursion</t>
+  </si>
+  <si>
+    <t>Sum of first N numbers</t>
+  </si>
+  <si>
+    <t>Factorial of N numbers</t>
+  </si>
+  <si>
+    <t>Reverse an array</t>
+  </si>
+  <si>
+    <t>Check if a string is palindrome or not</t>
+  </si>
+  <si>
+    <t>Fibonacci Number</t>
+  </si>
+  <si>
+    <t>Counting frequencies of array elements</t>
+  </si>
+  <si>
+    <t>Find the highest/lowest frequency elements</t>
+  </si>
+  <si>
+    <t>Approach :
+Condition : 
+Base Case :
+TC : 
+SC :</t>
+  </si>
+  <si>
+    <t>2.Basic Recursion</t>
+  </si>
+  <si>
+    <t>3.Basic Hashing</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Recursive Bubble Sort</t>
+  </si>
+  <si>
+    <t>Recursive Insertion Sort</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>4.Sorting Techniques</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Second Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Check if the array is sorted</t>
+  </si>
+  <si>
+    <t>Remove duplicates from Sorted array</t>
+  </si>
+  <si>
+    <t>Left Rotate an array by one place</t>
+  </si>
+  <si>
+    <t>Left rotate an array by D places</t>
+  </si>
+  <si>
+    <t>Move Zeros to end</t>
+  </si>
+  <si>
+    <t>Linear Search</t>
+  </si>
+  <si>
+    <t>Find the Union</t>
+  </si>
+  <si>
+    <t>Find missing number in an array</t>
+  </si>
+  <si>
+    <t>Maximum Consecutive Ones</t>
+  </si>
+  <si>
+    <t>Find the number that appears once</t>
+  </si>
+  <si>
+    <t>Longest subarray with given sum K(positive)</t>
+  </si>
+  <si>
+    <t>Longest subarray with sum K (Positive)</t>
+  </si>
+  <si>
+    <t>5.Arrays</t>
+  </si>
+  <si>
+    <t>2Sum Problem</t>
+  </si>
+  <si>
+    <t>Sort an array of 0's 1's and 2's</t>
+  </si>
+  <si>
+    <t>Majority Element (&gt;n/2 times)</t>
+  </si>
+  <si>
+    <t>Kadane's Algorithm, maximum subarray</t>
+  </si>
+  <si>
+    <t>Print subarray with maximum subarray</t>
+  </si>
+  <si>
+    <t>Stock Buy and Sell</t>
+  </si>
+  <si>
+    <t>Rearrange the array in alternating</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Leaders in an Array problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Consecutive Sequence in an </t>
+  </si>
+  <si>
+    <t>Set Matrix Zeros</t>
+  </si>
+  <si>
+    <t>Rotate Matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t>Print the matrix in spiral manner</t>
+  </si>
+  <si>
+    <t>Count subarrays with given sum</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>Majority Element (n/3 times)</t>
+  </si>
+  <si>
+    <t>3-Sum Problem</t>
+  </si>
+  <si>
+    <t>4-Sum Problem</t>
+  </si>
+  <si>
+    <t>Largest Subarray with 0 Sum</t>
+  </si>
+  <si>
+    <t>Count number of subarrays with given</t>
+  </si>
+  <si>
+    <t>Merge Overlapping Subintervals</t>
+  </si>
+  <si>
+    <t>Merge two sorted arrays without ext</t>
+  </si>
+  <si>
+    <t>Find the repeating and missing number</t>
+  </si>
+  <si>
+    <t>Count Inversions</t>
+  </si>
+  <si>
+    <t>Reverse Pairs</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Binary Search to find X in sorted array</t>
+  </si>
+  <si>
+    <t>Implement Lower Bound</t>
+  </si>
+  <si>
+    <t>Implement Upper Bound</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>Floor/Ceil in Sorted Array</t>
+  </si>
+  <si>
+    <t>Find the first or last occurrence o</t>
+  </si>
+  <si>
+    <t>Count occurrences of a number in array</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array I</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>Find minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Find out how many times has an array</t>
+  </si>
+  <si>
+    <t>Single element in a Sorted Array</t>
+  </si>
+  <si>
+    <t>Find peak element</t>
+  </si>
+  <si>
+    <t>6.Binary Search</t>
+  </si>
+  <si>
+    <t>BS on 1D Arrays</t>
+  </si>
+  <si>
+    <t>Find square root of a number in log</t>
+  </si>
+  <si>
+    <t>Find the Nth root of a number using</t>
+  </si>
+  <si>
+    <t>Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>Minimum days to make M bouquets</t>
+  </si>
+  <si>
+    <t>Find the smallest Divisor</t>
+  </si>
+  <si>
+    <t>Capacity to Ship Packages within D</t>
+  </si>
+  <si>
+    <t>Kth Missing Positive Number</t>
+  </si>
+  <si>
+    <t>Aggressive Cows</t>
+  </si>
+  <si>
+    <t>Book Allocation Problem</t>
+  </si>
+  <si>
+    <t>Split array - Largest Sum</t>
+  </si>
+  <si>
+    <t>Painter's partition</t>
+  </si>
+  <si>
+    <t>Minimize Max Distance to Gas Station</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays</t>
+  </si>
+  <si>
+    <t>Kth element of 2 sorted arrays</t>
+  </si>
+  <si>
+    <t>BS on Answers</t>
+  </si>
+  <si>
+    <t>Find the row with maximum number of</t>
+  </si>
+  <si>
+    <t>Search in a 2 D matrix</t>
+  </si>
+  <si>
+    <t>Search in a row and column wise sort</t>
+  </si>
+  <si>
+    <t>Find Peak Element (2D Matrix)</t>
+  </si>
+  <si>
+    <t>Matrix Median</t>
+  </si>
+  <si>
+    <t>BS on 2D Arrays</t>
+  </si>
+  <si>
+    <t>Remove outermost Paranthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse words in a given string </t>
+  </si>
+  <si>
+    <t>Largest odd number in a string</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Isomorphic String</t>
+  </si>
+  <si>
+    <t>check whether one string is a rotat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if two strings are anagram </t>
+  </si>
+  <si>
+    <t>Check for Prime number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exactly 2 factors , 1 and itself </t>
+  </si>
+  <si>
+    <t>Approach :
+Same as Reverse a Number
+TC : O(n) where n is the number of digits in the given integer
+SC : O(1)</t>
+  </si>
+  <si>
+    <t>Approach :
+Run the loop until the given number N is greather than zero. (i.e. N &gt; 0)
+In each step Divide the number by 10. (i.e. N= N / 10)
+Also, Increment the count by 1. ((i.e. cnt ++)
+TC : O(n) where n is the number of digits in the given integer
+SC : O(1)</t>
+  </si>
+  <si>
+    <t>Approach :
+Run the loop until the given number N is equal to zero. (i.e. N!=0)
+In each step take the remainder of the given number N and store it as a variable digit,  (i.e.digit = N % 10)
+Also, Divide the number by 10.  (i.e. N= N / 10)
+In each step, the variable reverse get updated as  (i.e.reverse = reverse*10+digit )
+TC : O(n) where n is the number of digits in the given integer
+SC : O(1)</t>
+  </si>
+  <si>
+    <t>Approach :
+Run the loop until the given number N is equal to zero. (i.e. N &gt; 0)
+In each step take the remainder of the given number N and store it as a variable digit,  (i.e.digit = N % 10)
+Also, Divide the number by 10.  (i.e. N= N / 10)
+In each step, the variable reverse get updated as  (i.e.armstrong = (i.e.armstrong +=pow(digit, 3) )
+TC : O(n) where n is the number of digits in the given integer
+SC : O(1)</t>
+  </si>
+  <si>
+    <t>Multiples of 9
+1  X 36
+2  X 18
+3  X 12
+4  X  9
+6  X  6
+9  X  4
+12 X  3
+18 X  2
+36 X  1</t>
+  </si>
+  <si>
+    <t>Approach :
+Run the  loop from 1 to N (i.e. 1 to N )
+In each step to get the reminder modules the number by i. (i.e. r = n % i)
+If Reminder equals zero print  i 
+TC : O(n) where n is the number of digits in the given integer
+SC : O(1)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Approach :
+Run the loop from 2 to square root of the number  (i.e. 2 to sqrt(N)+1 )
+In each step  Increment the count by 1, if n % i equals to 0 . (i.e. if n % i eq 0 then cnt ++)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">For the second half of the number (i.e. i != n/i) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+TC : O(sqrt(n)) where n is the number of digits in the given integer
+SC : O(1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Approach :
+Run the loop from 1 to square root of the number  (i.e. 1 to sqrt(N)+1 )
+In each step to get the reminder modules the number by i. (i.e. r = n % i)
+If Reminder equals zero print  i 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">For the second half of the number (i.e. i != n/i) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+TC : O(sqrt(n)) where n is the number of digits in the given integer
+SC : O(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Approach :
+Run the loop from min(a,b) to 1. (i.e. min(a,b) &lt;= 1 )
+In each step divide a and b by i if a % i and b % i equals 0 then break (i.e. a % i eq 0 and b % i eq 0 )
+TC : O(min(m,n))
+SC : O(1)</t>
+  </si>
+  <si>
+    <t>Approach :
+Run the loop untill both a and b are not equal to zero (i.e. a != 0 and  b != 0)
+In each step replace the larger number with larger number modules the smaller number  (i.e.if a &gt; b, a = a % b else b = b % a )
+TC : O(log(min(m,n)))
+SC : O(1)</t>
+  </si>
+  <si>
+    <r>
+      <t>Approach :
+Run the loop from 1 to N (i.e. 2 to N-1 )
+In each step  Increment the count by 1, if n % i equals to 0 . (i.e. if n % i eq 0 then cnt ++)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+TC : O(n) where n is the number of digits in the given integer
+SC : O(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Approach : return n + sum (n-1)
+Base Case : if n == 0 return 0
+TC : 0(n)
+SC : 0(1)</t>
+  </si>
+  <si>
+    <t>Approach : return n * fact (n-1)
+Base Case : if n == 1 return 1
+TC : 0(n)
+SC : 0(1)</t>
+  </si>
+  <si>
+    <t>Approach :  function (i+1, N)
+Base Case : if i &gt; N  return
+TC : 0(n)
+SC : 0(1)</t>
+  </si>
+  <si>
+    <t>Approach : function (i-1, N)
+Base Case : if i &lt; 1  return
+TC : 0(n)
+SC : 0(1)</t>
+  </si>
+  <si>
+    <t>Approach :  Swap first with last elment in the array 
+swap(arr, start + 1, end - 1)
+Base Case : if start &lt; end then arr[start], arr[end] = arr[end], arr[start]
+TC : 0(n/2)
+SC : 0(1)</t>
+  </si>
+  <si>
+    <t>Approach : Compare first with last elment in the array 
+str[i]!=str[len(str)-i-1] : return False
+palindrome(str,i+1)
+Base Case : i&gt;=len(str)/2 : return True
+TC : 0(n/2)
+SC : 0(1)</t>
+  </si>
+  <si>
+    <t>Approach : fib(N-1) + fib(N-2)
+Base Case : if N &lt;= 1 return N 
+TC : O(2^N)
+SC : 0(1)</t>
   </si>
 </sst>
 </file>
@@ -125,9 +695,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,7 +711,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,20 +734,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,21 +1070,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.5703125" customWidth="1"/>
+    <col min="7" max="7" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -513,19 +1105,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -537,182 +1129,1951 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3"/>
+    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="F3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3"/>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="F4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3"/>
+    <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3"/>
+    <row r="6" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+    <row r="7" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="6"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3"/>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3"/>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3"/>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3"/>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
+    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -721,7 +3082,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +3095,7 @@
       <c r="A1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -742,8 +3103,81 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Methods.xlsx
+++ b/Methods.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="168">
   <si>
     <t>Category</t>
   </si>
@@ -668,6 +668,21 @@
 Base Case : if N &lt;= 1 return N 
 TC : O(2^N)
 SC : 0(1)</t>
+  </si>
+  <si>
+    <t>Approach : Run the loop until the M queries
+In each step loop the entire array , if the element is present in the array
+then increase the count for the particular element 
+TC : O(M*N)
+SC : O(N)</t>
+  </si>
+  <si>
+    <t>Approach : Take a unordered_map/HashMap of &lt;Integer, Integer&gt; pair.
+Use a for loop to iterate the array.
+If the element is not present in the map then insert it with frequency 1, 
+otherwise increase the existing frequency by 1
+TC : O(N)
+SC : O(N)</t>
   </si>
 </sst>
 </file>
@@ -1072,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,7 +1468,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
@@ -1477,11 +1492,11 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
@@ -1495,12 +1510,19 @@
         <v>44</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
@@ -1518,8 +1540,11 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -1537,8 +1562,11 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
@@ -1556,8 +1584,11 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>58</v>
       </c>
@@ -1575,8 +1606,11 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
@@ -1594,8 +1628,11 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
@@ -1613,8 +1650,11 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
@@ -1632,8 +1672,11 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
@@ -1651,8 +1694,11 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
@@ -1670,8 +1716,11 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>74</v>
       </c>
@@ -1689,8 +1738,11 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
@@ -1708,8 +1760,11 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>74</v>
       </c>
@@ -1727,8 +1782,11 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>74</v>
       </c>
@@ -1746,8 +1804,11 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>74</v>
       </c>
@@ -1765,8 +1826,11 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>74</v>
       </c>
@@ -1784,8 +1848,11 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>74</v>
       </c>
@@ -1803,8 +1870,11 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>74</v>
       </c>
@@ -1822,8 +1892,11 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
@@ -1841,8 +1914,11 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>74</v>
       </c>
@@ -1860,8 +1936,11 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>74</v>
       </c>
@@ -1879,8 +1958,11 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>74</v>
       </c>
@@ -1898,8 +1980,11 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
@@ -1917,8 +2002,11 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
@@ -1936,8 +2024,11 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>74</v>
       </c>
@@ -1955,8 +2046,11 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>74</v>
       </c>
@@ -1974,8 +2068,11 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>74</v>
       </c>
@@ -1993,8 +2090,11 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>74</v>
       </c>
@@ -2012,8 +2112,11 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>74</v>
       </c>
@@ -2031,8 +2134,11 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>74</v>
       </c>
@@ -2050,8 +2156,11 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>74</v>
       </c>
@@ -2069,8 +2178,11 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>74</v>
       </c>
@@ -2088,8 +2200,11 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>74</v>
       </c>
@@ -2107,8 +2222,11 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -2126,8 +2244,11 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
@@ -2145,8 +2266,11 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>74</v>
       </c>
@@ -2164,8 +2288,11 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>74</v>
       </c>
@@ -2183,8 +2310,11 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>74</v>
       </c>
@@ -2202,8 +2332,11 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>74</v>
       </c>
@@ -2221,8 +2354,11 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>74</v>
       </c>
@@ -2240,8 +2376,11 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>74</v>
       </c>
@@ -2259,8 +2398,11 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>74</v>
       </c>
@@ -2278,8 +2420,11 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>74</v>
       </c>
@@ -2297,8 +2442,11 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>74</v>
       </c>
@@ -2316,8 +2464,11 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>74</v>
       </c>
@@ -2335,8 +2486,11 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>74</v>
       </c>
@@ -2354,8 +2508,11 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>74</v>
       </c>
@@ -2373,8 +2530,11 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>74</v>
       </c>
@@ -2392,8 +2552,11 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>74</v>
       </c>
@@ -2411,8 +2574,11 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>116</v>
       </c>
@@ -2430,8 +2596,11 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>116</v>
       </c>
@@ -2449,8 +2618,11 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>116</v>
       </c>
@@ -2468,8 +2640,11 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>116</v>
       </c>
@@ -2487,8 +2662,11 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>116</v>
       </c>
@@ -2506,8 +2684,11 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>116</v>
       </c>
@@ -2525,8 +2706,11 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>116</v>
       </c>
@@ -2544,8 +2728,11 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>116</v>
       </c>
@@ -2563,8 +2750,11 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>116</v>
       </c>
@@ -2582,8 +2772,11 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>116</v>
       </c>
@@ -2601,8 +2794,11 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>116</v>
       </c>
@@ -2620,8 +2816,11 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>116</v>
       </c>
@@ -2639,8 +2838,11 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>116</v>
       </c>
@@ -2658,8 +2860,11 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>116</v>
       </c>
@@ -2677,8 +2882,11 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>116</v>
       </c>
@@ -2696,8 +2904,11 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>116</v>
       </c>
@@ -2715,8 +2926,11 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>116</v>
       </c>
@@ -2734,8 +2948,11 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>116</v>
       </c>
@@ -2753,8 +2970,11 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>116</v>
       </c>
@@ -2772,8 +2992,11 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>116</v>
       </c>
@@ -2791,8 +3014,11 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>116</v>
       </c>
@@ -2810,8 +3036,11 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>116</v>
       </c>
@@ -2829,8 +3058,11 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>116</v>
       </c>
@@ -2848,8 +3080,11 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>116</v>
       </c>
@@ -2867,8 +3102,11 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>116</v>
       </c>
@@ -2886,8 +3124,11 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>116</v>
       </c>
@@ -2905,8 +3146,11 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>116</v>
       </c>
@@ -2924,8 +3168,11 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>116</v>
       </c>
@@ -2943,8 +3190,11 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>116</v>
       </c>
@@ -2962,8 +3212,11 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>116</v>
       </c>
@@ -2981,8 +3234,11 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>116</v>
       </c>
@@ -3000,8 +3256,11 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>116</v>
       </c>
@@ -3019,8 +3278,11 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3032,8 +3294,11 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3045,28 +3310,31 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>145</v>
       </c>

--- a/Methods.xlsx
+++ b/Methods.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="174">
   <si>
     <t>Category</t>
   </si>
@@ -683,6 +683,24 @@
 otherwise increase the existing frequency by 1
 TC : O(N)
 SC : O(N)</t>
+  </si>
+  <si>
+    <t>Stacks</t>
+  </si>
+  <si>
+    <t>Stack of plates</t>
+  </si>
+  <si>
+    <t>Hashmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glorified Dictionary </t>
+  </si>
+  <si>
+    <t>Data structures are the way to organize and store data in a systematic and efficient manner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data To organize in the right way, modify in the right order </t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I14" sqref="I14:L98"/>
     </sheetView>
   </sheetViews>
@@ -3347,9 +3365,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3359,20 +3377,46 @@
     <col min="2" max="2" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
